--- a/软件学院专业硕士论文检查表2019版.xlsx
+++ b/软件学院专业硕士论文检查表2019版.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sdair13/Documents/data/Dropbox/1课程/6工程硕士论文/论文指南/2019材料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM\Desktop\graduate-article\work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BFC8E4-50A0-5F41-9BB4-781843925B0F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25596" yWindow="456" windowWidth="25596" windowHeight="28344"/>
   </bookViews>
   <sheets>
     <sheet name="分类" sheetId="2" r:id="rId1"/>
@@ -77,9 +76,6 @@
     <t>英文摘要的拼写与语法错误检查，至少word本身语法检查的问题必须修改。</t>
   </si>
   <si>
-    <t>英文摘要对于“本文”的对照翻译不要使用“The paper”或者“This paper”，而是翻译为“The thesis”，“this thesis”， 英文中学位论文对应的标准单词是 thesis或者 dissertation，一般不用paper，paper一般用于表示发表的小论文(journal paper or conference paper)。</t>
-  </si>
-  <si>
     <t>英文摘要的段落是否与中文摘要一致，是否有不全的，没有翻译的内容。</t>
   </si>
   <si>
@@ -5339,13 +5335,17 @@
   </si>
   <si>
     <t>每个表格是否在段落中消除了首行缩进，并设置居中或者左对齐。</t>
+  </si>
+  <si>
+    <t>英文摘要对于“本文”的对照翻译不要使用“The paper”或者“This paper”，而是翻译为“The thesis”，“this thesis”， 英文中学位论文对应的标准单词是 thesis或者 dissertation，一般不用paper，paper一般用于表示发表的小论文(journal paper or conference paper)。</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6018,24 +6018,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="126.5" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="126.44140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" style="25" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="24"/>
+    <col min="6" max="16384" width="10.77734375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="22" customFormat="1" ht="18">
+    <row r="1" spans="1:5" s="22" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
       <c r="B3" s="30">
         <v>2</v>
@@ -6074,7 +6074,7 @@
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="34"/>
       <c r="B4" s="30">
         <v>3</v>
@@ -6085,7 +6085,7 @@
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="32">
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="34"/>
       <c r="B5" s="30">
         <v>4</v>
@@ -6096,7 +6096,7 @@
       <c r="D5" s="31"/>
       <c r="E5" s="31"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34"/>
       <c r="B6" s="30">
         <v>5</v>
@@ -6107,7 +6107,7 @@
       <c r="D6" s="31"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>10</v>
       </c>
@@ -6120,7 +6120,7 @@
       <c r="D7" s="31"/>
       <c r="E7" s="31"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
       <c r="B8" s="30">
         <v>7</v>
@@ -6131,7 +6131,7 @@
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="32">
+    <row r="9" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A9" s="34"/>
       <c r="B9" s="30">
         <v>8</v>
@@ -6142,7 +6142,7 @@
       <c r="D9" s="31"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:5" ht="32">
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A10" s="34"/>
       <c r="B10" s="30">
         <v>9</v>
@@ -6153,7 +6153,7 @@
       <c r="D10" s="31"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="34"/>
       <c r="B11" s="30">
         <v>10</v>
@@ -6164,7 +6164,7 @@
       <c r="D11" s="31"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="34"/>
       <c r="B12" s="30">
         <v>11</v>
@@ -6175,1158 +6175,1163 @@
       <c r="D12" s="31"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:5" ht="48">
+    <row r="13" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A13" s="34"/>
       <c r="B13" s="30">
         <v>12</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>17</v>
+        <v>333</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="30">
         <v>13</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="30">
         <v>14</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="34"/>
       <c r="B16" s="30">
         <v>15</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="34"/>
       <c r="B17" s="30">
         <v>16</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="34"/>
       <c r="B18" s="30">
         <v>17</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="34"/>
       <c r="B19" s="30">
         <v>18</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="34"/>
       <c r="B20" s="30">
         <v>19</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="34"/>
       <c r="B21" s="30">
         <v>20</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="34"/>
       <c r="B22" s="30">
         <v>21</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
       <c r="B23" s="30">
         <v>22</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="34"/>
       <c r="B24" s="30">
         <v>23</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="30">
         <v>24</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="34"/>
       <c r="B26" s="30">
         <v>25</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="30">
         <v>26</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="34"/>
       <c r="B28" s="30">
         <v>27</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="30">
         <v>28</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="34"/>
       <c r="B30" s="30">
         <v>29</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34"/>
       <c r="B31" s="30">
         <v>30</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34"/>
       <c r="B32" s="30">
         <v>31</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="34"/>
       <c r="B33" s="30">
         <v>32</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="31"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="34"/>
       <c r="B34" s="30">
         <v>33</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="31"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="30">
         <v>34</v>
       </c>
       <c r="C35" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A36" s="34"/>
       <c r="B36" s="30">
         <v>35</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="34"/>
       <c r="B37" s="30">
         <v>36</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="34"/>
       <c r="B38" s="30">
         <v>37</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="34"/>
       <c r="B39" s="30">
         <v>38</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="34"/>
       <c r="B40" s="30">
         <v>39</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="34"/>
       <c r="B41" s="30">
         <v>40</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="30">
         <v>41</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="34"/>
       <c r="B43" s="30">
         <v>42</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="31"/>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="30">
         <v>43</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="31"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="34"/>
       <c r="B45" s="30">
         <v>44</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="31"/>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="34"/>
       <c r="B46" s="30">
         <v>45</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="31"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="30">
         <v>46</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="34"/>
       <c r="B48" s="30">
         <v>47</v>
       </c>
       <c r="C48" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="31"/>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="34"/>
       <c r="B49" s="30">
         <v>48</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="34"/>
       <c r="B50" s="30">
         <v>49</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="30">
         <v>50</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="31"/>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
       <c r="B52" s="30">
         <v>51</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="31"/>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
       <c r="B53" s="30">
         <v>52</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="31"/>
     </row>
-    <row r="54" spans="1:5" ht="48">
+    <row r="54" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="B54" s="30">
         <v>53</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="31"/>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A55" s="37"/>
       <c r="B55" s="30">
         <v>54</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B56" s="30">
         <v>55</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A57" s="34"/>
       <c r="B57" s="30">
         <v>56</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="31"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58" s="30">
         <v>57</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="31"/>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="30">
         <v>58</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D59" s="31"/>
       <c r="E59" s="31"/>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="39"/>
       <c r="B60" s="30">
         <v>59</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="31"/>
       <c r="E60" s="31"/>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="39"/>
       <c r="B61" s="30">
         <v>60</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D61" s="31"/>
       <c r="E61" s="31"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="39"/>
       <c r="B62" s="30">
         <v>61</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="31"/>
       <c r="E62" s="31"/>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="39"/>
       <c r="B63" s="30">
         <v>62</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="31"/>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="30">
         <v>63</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="30">
         <v>64</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="30">
         <v>65</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="31"/>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="30">
         <v>66</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="31"/>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="30">
         <v>67</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="31"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="30">
         <v>68</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="31"/>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="30">
         <v>69</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D70" s="31"/>
       <c r="E70" s="31"/>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="30">
         <v>70</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D71" s="31"/>
       <c r="E71" s="31"/>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="30">
         <v>71</v>
       </c>
       <c r="C72" s="31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
     </row>
-    <row r="73" spans="1:5" ht="32">
+    <row r="73" spans="1:5" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="30">
         <v>72</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B74" s="30">
         <v>73</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D74" s="31"/>
       <c r="E74" s="31"/>
     </row>
-    <row r="75" spans="1:5" ht="32">
+    <row r="75" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A75" s="34"/>
       <c r="B75" s="30">
         <v>74</v>
       </c>
       <c r="C75" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
     </row>
-    <row r="76" spans="1:5" ht="32">
+    <row r="76" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A76" s="34"/>
       <c r="B76" s="30">
         <v>75</v>
       </c>
       <c r="C76" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A77" s="34"/>
       <c r="B77" s="30">
         <v>76</v>
       </c>
       <c r="C77" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="34"/>
       <c r="B78" s="30">
         <v>77</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A79" s="34"/>
       <c r="B79" s="30">
         <v>78</v>
       </c>
       <c r="C79" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="31"/>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="34"/>
       <c r="B80" s="30">
         <v>79</v>
       </c>
       <c r="C80" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D80" s="31"/>
       <c r="E80" s="31"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="34"/>
       <c r="B81" s="30">
         <v>80</v>
       </c>
       <c r="C81" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D81" s="31"/>
       <c r="E81" s="31"/>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="34"/>
       <c r="B82" s="30">
         <v>81</v>
       </c>
       <c r="C82" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D82" s="31"/>
       <c r="E82" s="31"/>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="34"/>
       <c r="B83" s="30">
         <v>82</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="31"/>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="34"/>
       <c r="B84" s="30">
         <v>83</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D84" s="31"/>
       <c r="E84" s="31"/>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="34"/>
       <c r="B85" s="30">
         <v>84</v>
       </c>
       <c r="C85" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D85" s="31"/>
       <c r="E85" s="31"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="34"/>
       <c r="B86" s="30">
         <v>85</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D86" s="31"/>
       <c r="E86" s="31"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="34"/>
       <c r="B87" s="30">
         <v>86</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
       <c r="B88" s="30">
         <v>87</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D88" s="31"/>
       <c r="E88" s="31"/>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A89" s="34"/>
       <c r="B89" s="30">
         <v>88</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D89" s="31"/>
       <c r="E89" s="31"/>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="34"/>
       <c r="B90" s="30">
         <v>89</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" s="31"/>
       <c r="E90" s="31"/>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="30">
         <v>90</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D91" s="31"/>
       <c r="E91" s="31"/>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="34"/>
       <c r="B92" s="30">
         <v>91</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D92" s="31"/>
       <c r="E92" s="31"/>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="34"/>
       <c r="B93" s="30">
         <v>92</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D93" s="31"/>
       <c r="E93" s="31"/>
     </row>
-    <row r="94" spans="1:5" ht="32">
+    <row r="94" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A94" s="34"/>
       <c r="B94" s="30">
         <v>93</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D94" s="31"/>
       <c r="E94" s="31"/>
     </row>
-    <row r="95" spans="1:5" ht="32">
+    <row r="95" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A95" s="34"/>
       <c r="B95" s="30">
         <v>94</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="34"/>
       <c r="B96" s="30">
         <v>95</v>
       </c>
       <c r="C96" s="33" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="34"/>
       <c r="B97" s="30">
         <v>96</v>
       </c>
       <c r="C97" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="34"/>
       <c r="B98" s="30">
         <v>97</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D98" s="31"/>
       <c r="E98" s="31"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="34"/>
       <c r="B99" s="30">
         <v>98</v>
       </c>
       <c r="C99" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="31"/>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="34"/>
       <c r="B100" s="30">
         <v>99</v>
       </c>
       <c r="C100" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" s="31"/>
       <c r="E100" s="31"/>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B101" s="30">
         <v>100</v>
       </c>
       <c r="C101" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" s="31"/>
       <c r="E101" s="31"/>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="34"/>
       <c r="B102" s="30">
         <v>101</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" s="30">
         <v>102</v>
       </c>
       <c r="C103" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="30">
         <v>103</v>
       </c>
       <c r="C104" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" s="31"/>
       <c r="E104" s="31"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="30">
         <v>104</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D105" s="31"/>
       <c r="E105" s="31"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="30">
         <v>105</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D106" s="31"/>
       <c r="E106" s="31"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="30">
         <v>106</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D107" s="31"/>
       <c r="E107" s="31"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="30">
         <v>107</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D108" s="31"/>
       <c r="E108" s="31"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="30">
         <v>108</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D109" s="31"/>
       <c r="E109" s="31"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B110" s="30">
         <v>109</v>
       </c>
       <c r="C110" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D110" s="31"/>
       <c r="E110" s="31"/>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="34"/>
       <c r="B111" s="30">
         <v>110</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D111" s="31"/>
       <c r="E111" s="31"/>
     </row>
-    <row r="112" spans="1:5" ht="32">
+    <row r="112" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A112" s="34"/>
       <c r="B112" s="30">
         <v>111</v>
       </c>
       <c r="C112" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D112" s="31"/>
       <c r="E112" s="31"/>
     </row>
-    <row r="113" spans="1:5" ht="32">
+    <row r="113" spans="1:5" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A113" s="34"/>
       <c r="B113" s="30">
         <v>112</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="34"/>
       <c r="B114" s="30">
         <v>113</v>
       </c>
       <c r="C114" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D114" s="31"/>
       <c r="E114" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A24"/>
+    <mergeCell ref="A25:A41"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A74:A90"/>
     <mergeCell ref="A91:A100"/>
     <mergeCell ref="A101:A102"/>
@@ -7337,11 +7342,6 @@
     <mergeCell ref="A56:A57"/>
     <mergeCell ref="A59:A73"/>
     <mergeCell ref="A103:A109"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A24"/>
-    <mergeCell ref="A25:A41"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7350,21 +7350,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="122.1640625" customWidth="1"/>
+    <col min="3" max="3" width="122.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -7376,194 +7376,194 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="40" customHeight="1">
+    <row r="2" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="40" customHeight="1">
+    <row r="3" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>136</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="40" customHeight="1">
+    <row r="4" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="40" customHeight="1">
+    <row r="5" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>139</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="40" customHeight="1">
+    <row r="6" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>142</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="40" customHeight="1">
+    <row r="7" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="40" customHeight="1">
+    <row r="8" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="40" customHeight="1">
+    <row r="9" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="40" customHeight="1">
+    <row r="10" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>149</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="40" customHeight="1">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>151</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>152</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
+    <row r="12" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>154</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="40" customHeight="1">
+    <row r="13" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>155</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>156</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="40" customHeight="1">
+    <row r="14" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>157</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>158</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="40" customHeight="1">
+    <row r="15" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>160</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="40" customHeight="1">
+    <row r="16" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>14</v>
@@ -7571,1156 +7571,1156 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="40" customHeight="1">
+    <row r="17" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="40" customHeight="1">
+    <row r="18" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="40" customHeight="1">
+    <row r="19" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>168</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="40" customHeight="1">
+    <row r="20" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>170</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="40" customHeight="1">
+    <row r="21" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>171</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="40" customHeight="1">
+    <row r="22" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="40" customHeight="1">
+    <row r="23" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="40" customHeight="1">
+    <row r="24" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>178</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:5" ht="40" customHeight="1">
+    <row r="25" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>179</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>180</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="1:5" ht="40" customHeight="1">
+    <row r="26" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="1:5" ht="40" customHeight="1">
+    <row r="27" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>182</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>183</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="40" customHeight="1">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="8" t="s">
         <v>185</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>186</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="40" customHeight="1">
-      <c r="A29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="30" spans="1:5" ht="40" customHeight="1">
+    <row r="30" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
     </row>
-    <row r="31" spans="1:5" ht="40" customHeight="1">
+    <row r="31" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
-    <row r="32" spans="1:5" ht="40" customHeight="1">
+    <row r="32" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="1:5" ht="40" customHeight="1">
+    <row r="33" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>197</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="1:5" ht="40" customHeight="1">
+    <row r="34" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
     </row>
-    <row r="35" spans="1:5" ht="40" customHeight="1">
+    <row r="35" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>200</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>201</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
     </row>
-    <row r="36" spans="1:5" ht="40" customHeight="1">
+    <row r="36" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
     </row>
-    <row r="37" spans="1:5" ht="40" customHeight="1">
+    <row r="37" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>204</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>205</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
     </row>
-    <row r="38" spans="1:5" ht="40" customHeight="1">
+    <row r="38" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
     </row>
-    <row r="39" spans="1:5" ht="40" customHeight="1">
+    <row r="39" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
     </row>
-    <row r="40" spans="1:5" ht="40" customHeight="1">
+    <row r="40" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>210</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>211</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
     </row>
-    <row r="41" spans="1:5" ht="40" customHeight="1">
+    <row r="41" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>212</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>213</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="40" customHeight="1">
+    <row r="42" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
     </row>
-    <row r="43" spans="1:5" ht="40" customHeight="1">
+    <row r="43" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B43" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>216</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>217</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
     </row>
-    <row r="44" spans="1:5" ht="40" customHeight="1">
+    <row r="44" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
     </row>
-    <row r="45" spans="1:5" ht="40" customHeight="1">
+    <row r="45" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
     </row>
-    <row r="46" spans="1:5" ht="40" customHeight="1">
+    <row r="46" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>222</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
     </row>
-    <row r="47" spans="1:5" ht="40" customHeight="1">
+    <row r="47" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>224</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>225</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
     </row>
-    <row r="48" spans="1:5" ht="40" customHeight="1">
+    <row r="48" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>226</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>227</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="1:5" ht="40" customHeight="1">
+    <row r="49" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>228</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>229</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="1:5" ht="40" customHeight="1">
+    <row r="50" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="1:5" ht="40" customHeight="1">
+    <row r="51" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C51" s="8" t="s">
         <v>232</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>233</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
     </row>
-    <row r="52" spans="1:5" ht="40" customHeight="1">
+    <row r="52" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>235</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
     </row>
-    <row r="53" spans="1:5" ht="40" customHeight="1">
+    <row r="53" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>237</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="40" customHeight="1">
+    <row r="54" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>239</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
     </row>
-    <row r="55" spans="1:5" ht="40" customHeight="1">
+    <row r="55" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>241</v>
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
     </row>
-    <row r="56" spans="1:5" ht="40" customHeight="1">
+    <row r="56" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>242</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>243</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
     </row>
-    <row r="57" spans="1:5" ht="40" customHeight="1">
+    <row r="57" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>244</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>245</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
     </row>
-    <row r="58" spans="1:5" ht="40" customHeight="1">
+    <row r="58" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>247</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
     </row>
-    <row r="59" spans="1:5" ht="40" customHeight="1">
+    <row r="59" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>248</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>249</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
     </row>
-    <row r="60" spans="1:5" ht="40" customHeight="1">
+    <row r="60" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C60" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>251</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
     </row>
-    <row r="61" spans="1:5" ht="40" customHeight="1">
+    <row r="61" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>252</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
     </row>
-    <row r="62" spans="1:5" ht="40" customHeight="1">
+    <row r="62" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>254</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>255</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
     </row>
-    <row r="63" spans="1:5" ht="40" customHeight="1">
+    <row r="63" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>257</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
     </row>
-    <row r="64" spans="1:5" ht="40" customHeight="1">
+    <row r="64" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>258</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
     </row>
-    <row r="65" spans="1:5" ht="40" customHeight="1">
+    <row r="65" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>261</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
     </row>
-    <row r="66" spans="1:5" ht="40" customHeight="1">
+    <row r="66" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
     </row>
-    <row r="67" spans="1:5" ht="40" customHeight="1">
+    <row r="67" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B67" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>264</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>265</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
     </row>
-    <row r="68" spans="1:5" ht="40" customHeight="1">
+    <row r="68" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
     </row>
-    <row r="69" spans="1:5" ht="40" customHeight="1">
+    <row r="69" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>268</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
     </row>
-    <row r="70" spans="1:5" ht="40" customHeight="1">
+    <row r="70" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:5" ht="40" customHeight="1">
+    <row r="71" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C71" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>273</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
     </row>
-    <row r="72" spans="1:5" ht="40" customHeight="1">
+    <row r="72" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B72" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
     </row>
-    <row r="73" spans="1:5" ht="40" customHeight="1">
+    <row r="73" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>277</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
     </row>
-    <row r="74" spans="1:5" ht="40" customHeight="1">
+    <row r="74" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
     </row>
-    <row r="75" spans="1:5" ht="40" customHeight="1">
+    <row r="75" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B75" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>280</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>281</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
     </row>
-    <row r="76" spans="1:5" ht="40" customHeight="1">
+    <row r="76" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="16" t="s">
         <v>282</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>283</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
     </row>
-    <row r="77" spans="1:5" ht="40" customHeight="1">
+    <row r="77" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B77" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C77" s="16" t="s">
         <v>284</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>285</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="40" customHeight="1">
+    <row r="78" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B78" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>287</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" ht="40" customHeight="1">
+    <row r="79" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="16" t="s">
         <v>288</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>289</v>
       </c>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
     </row>
-    <row r="80" spans="1:5" ht="40" customHeight="1">
+    <row r="80" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
     </row>
-    <row r="81" spans="1:5" ht="40" customHeight="1">
+    <row r="81" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C81" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="C81" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
     </row>
-    <row r="82" spans="1:5" ht="40" customHeight="1">
+    <row r="82" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="C82" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="C82" s="17" t="s">
-        <v>294</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
     </row>
-    <row r="83" spans="1:5" ht="40" customHeight="1">
+    <row r="83" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B83" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="C83" s="18" t="s">
         <v>295</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>296</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13"/>
     </row>
-    <row r="84" spans="1:5" ht="40" customHeight="1">
+    <row r="84" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C84" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" ht="40" customHeight="1">
+    <row r="85" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
     </row>
-    <row r="86" spans="1:5" ht="40" customHeight="1">
+    <row r="86" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C86" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>301</v>
       </c>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
     </row>
-    <row r="87" spans="1:5" ht="40" customHeight="1">
+    <row r="87" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>302</v>
-      </c>
-      <c r="C87" s="19" t="s">
-        <v>303</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
     </row>
-    <row r="88" spans="1:5" ht="40" customHeight="1">
+    <row r="88" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C88" s="17" t="s">
         <v>304</v>
-      </c>
-      <c r="C88" s="17" t="s">
-        <v>305</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" spans="1:5" ht="40" customHeight="1">
+    <row r="89" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>306</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" spans="1:5" ht="40" customHeight="1">
+    <row r="90" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C90" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>309</v>
       </c>
       <c r="D90" s="9"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" spans="1:5" ht="40" customHeight="1">
+    <row r="91" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="1:5" ht="40" customHeight="1">
+    <row r="92" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" spans="1:5" ht="40" customHeight="1">
+    <row r="93" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" spans="1:5" ht="40" customHeight="1">
+    <row r="94" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" spans="1:5" ht="40" customHeight="1">
+    <row r="95" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B95" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C95" s="17" t="s">
         <v>314</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>315</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" spans="1:5" ht="40" customHeight="1">
+    <row r="96" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C96" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="C96" s="17" t="s">
-        <v>317</v>
       </c>
       <c r="D96" s="9"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" spans="1:5" ht="40" customHeight="1">
+    <row r="97" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="C97" s="17" t="s">
-        <v>319</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="1:5" ht="40" customHeight="1">
+    <row r="98" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C98" s="17" t="s">
         <v>320</v>
-      </c>
-      <c r="C98" s="17" t="s">
-        <v>321</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" spans="1:5" ht="40" customHeight="1">
+    <row r="99" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C99" s="17" t="s">
         <v>322</v>
-      </c>
-      <c r="C99" s="17" t="s">
-        <v>323</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" spans="1:5" ht="40" customHeight="1">
+    <row r="100" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B100" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="C100" s="17" t="s">
-        <v>325</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" spans="1:5" ht="40" customHeight="1">
+    <row r="101" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B101" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" s="18" t="s">
         <v>326</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>327</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="20"/>
     </row>
-    <row r="102" spans="1:5" ht="40" customHeight="1">
+    <row r="102" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="1:5" ht="40" customHeight="1">
+    <row r="103" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C103" s="17" t="s">
         <v>329</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>330</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" spans="1:5" ht="40" customHeight="1">
+    <row r="104" spans="1:5" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="C104" s="18" t="s">
         <v>331</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>332</v>
       </c>
       <c r="D104" s="13"/>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A105" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:A105"/>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
